--- a/spells.xlsx
+++ b/spells.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3765" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ModHealth</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>purple(3)</t>
+  </si>
+  <si>
+    <t>SaveCharge</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,26 +625,26 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
@@ -646,121 +652,123 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9">
@@ -771,75 +779,75 @@
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
         <v>4</v>
       </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5">
@@ -850,234 +858,256 @@
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
         <v>4</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D31" s="7">
         <v>5</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="8">
-        <f>COUNTIF(B$2:B$34, "0")</f>
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <f t="shared" ref="C36:E36" si="0">COUNTIF(C$2:C$34, "0")</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="B38" s="8">
+        <f>COUNTIF(B$2:B$36, "0")</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="8">
+        <f>COUNTIF(C$2:C$36, "0")</f>
+        <v>2</v>
+      </c>
+      <c r="D38" s="8">
+        <f>COUNTIF(D$2:D$36, "0")</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="8">
+        <f>COUNTIF(E$2:E$36, "0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <f>COUNTIF(B$2:B$36, "1")</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <f>COUNTIF(C$2:C$36, "1")</f>
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <f>COUNTIF(D$2:D$36, "1")</f>
+        <v>3</v>
+      </c>
+      <c r="E39" s="3">
+        <f>COUNTIF(E$2:E$36, "1")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <f>COUNTIF(B$2:B$36, "2")</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <f>COUNTIF(C$2:C$36, "2")</f>
+        <v>3</v>
+      </c>
+      <c r="D40" s="4">
+        <f>COUNTIF(D$2:D$36, "2")</f>
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <f>COUNTIF(E$2:E$36, "2")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="9">
+        <f>COUNTIF(B$2:B$36, "3")</f>
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <f>COUNTIF(C$2:C$36, "3")</f>
+        <v>3</v>
+      </c>
+      <c r="D41" s="9">
+        <f>COUNTIF(D$2:D$36, "3")</f>
+        <v>2</v>
+      </c>
+      <c r="E41" s="9">
+        <f>COUNTIF(E$2:E$36, "3")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5">
+        <f>COUNTIF(B$2:B$36, "4")</f>
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <f>COUNTIF(C$2:C$36, "4")</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <f>COUNTIF(D$2:D$36, "4")</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="5">
+        <f>COUNTIF(E$2:E$36, "4")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2">
+        <f>COUNTIF(B$2:B$36, "5")</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:E43" si="0">COUNTIF(C$2:C$36, "5")</f>
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3">
-        <f>COUNTIF(B$2:B$34, "1")</f>
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" ref="C37:E37" si="1">COUNTIF(C$2:C$34, "1")</f>
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4">
-        <f>COUNTIF(B$2:B$34, "2")</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" ref="C38:E38" si="2">COUNTIF(C$2:C$34, "2")</f>
-        <v>3</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="9">
-        <f>COUNTIF(B$2:B$34, "3")</f>
-        <v>2</v>
-      </c>
-      <c r="C39" s="9">
-        <f t="shared" ref="C39:E39" si="3">COUNTIF(C$2:C$34, "3")</f>
-        <v>3</v>
-      </c>
-      <c r="D39" s="9">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E39" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <f>COUNTIF(B$2:B$34, "4")</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="5">
-        <f t="shared" ref="C40:E40" si="4">COUNTIF(C$2:C$34, "4")</f>
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <f>COUNTIF(B$2:B$34, "5")</f>
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" ref="C41:E41" si="5">COUNTIF(C$2:C$34, "5")</f>
-        <v>2</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
